--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.030320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.030320.xlsx_with_dialog_acts.xlsx
@@ -1357,12 +1357,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2449,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3293,12 +3293,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4053,12 +4053,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5947,12 +5947,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6199,12 +6199,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6577,12 +6577,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7289,12 +7289,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7457,12 +7457,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7541,12 +7541,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7709,12 +7709,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7793,12 +7793,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
